--- a/03_adjustment_template.xlsx
+++ b/03_adjustment_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_7E2568A320AF5CB5181A383A3263558C26A03D60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89475BFD-3341-F847-802E-45910ADB3986}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_7E2568A320AF5CB5181A383A3263558C26A03D60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515AEE09-A227-3A4C-B89A-5C315C84341E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
   <si>
     <t>Asset Mass Adjustment</t>
   </si>
@@ -538,6 +538,90 @@
   </si>
   <si>
     <t>MPA_ADJUSTMENT_SUB_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULLL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SENDER_SUB_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_SUB_SUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 898</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RET_PART_SUB_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RET_FULL_SUB_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULL_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PART_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PART_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SENDER_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_SUB_MAIN</t>
   </si>
 </sst>
 </file>
@@ -615,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -630,6 +714,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1578,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1589,15 +1676,15 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -1772,7 +1859,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1811,7 +1898,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>135</v>
@@ -1848,8 +1935,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>143</v>
+      <c r="A9" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>135</v>
@@ -1887,7 +1974,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>135</v>
@@ -1924,8 +2011,8 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>147</v>
+      <c r="A11" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>135</v>
@@ -1966,7 +2053,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>135</v>
@@ -2006,8 +2093,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
+      <c r="A13" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>135</v>
@@ -2048,7 +2135,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>135</v>
@@ -2088,8 +2175,8 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
+      <c r="A15" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>135</v>
@@ -2127,7 +2214,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>149</v>
@@ -2161,8 +2248,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
+      <c r="A17" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>135</v>
@@ -2197,7 +2284,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>149</v>
@@ -2234,8 +2321,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>148</v>
+      <c r="A19" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>135</v>
@@ -2269,6 +2356,298 @@
       </c>
       <c r="L19" s="1" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/03_adjustment_template.xlsx
+++ b/03_adjustment_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_7E2568A320AF5CB5181A383A3263558C26A03D60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515AEE09-A227-3A4C-B89A-5C315C84341E}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_7E2568A320AF5CB5181A383A3263558C26A03D60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BAE6F61-1497-7147-9CC7-E480F84AF942}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="199">
   <si>
     <t>Asset Mass Adjustment</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_SUB_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 898</t>
   </si>
   <si>
     <t>MPA_ADJUSTMENT_RET_PART_SUB_SUB</t>
@@ -1668,7 +1665,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F20" sqref="F20:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2371,8 +2368,8 @@
       <c r="D20" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>191</v>
+      <c r="F20" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>138</v>
@@ -2404,13 +2401,13 @@
         <v>136</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>191</v>
+      <c r="F21" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>138</v>
@@ -2444,8 +2441,8 @@
       <c r="D22" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>191</v>
+      <c r="F22" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>138</v>
@@ -2477,13 +2474,13 @@
         <v>136</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>191</v>
+      <c r="F23" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>138</v>
@@ -2515,10 +2512,10 @@
         <v>136</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>138</v>
@@ -2550,13 +2547,13 @@
         <v>136</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F25" s="7" t="s">
         <v>191</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>138</v>
@@ -2588,10 +2585,10 @@
         <v>136</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>138</v>
@@ -2623,13 +2620,13 @@
         <v>136</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>138</v>

--- a/03_adjustment_template.xlsx
+++ b/03_adjustment_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/new_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_7E2568A320AF5CB5181A383A3263558C26A03D60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BAE6F61-1497-7147-9CC7-E480F84AF942}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_51D5E8B5B1A7DCD4F48B0C3E6CCE9E4D35E8A264" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F74023B-73B4-2044-A81D-15A96AF459C9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21860" windowHeight="14940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="202">
   <si>
     <t>Asset Mass Adjustment</t>
   </si>
@@ -78,174 +78,183 @@
     <t>BLDAT</t>
   </si>
   <si>
-    <t>*Document Date in Document (YYYY-MM-DD)</t>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>BUDAT</t>
   </si>
   <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD)</t>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>BZDAT</t>
   </si>
   <si>
-    <t>*Asset Value Date (YYYY-MM-DD)</t>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>ANBTR</t>
   </si>
   <si>
+    <t>Amount posted (23)</t>
+  </si>
+  <si>
+    <t>SGTXT</t>
+  </si>
+  <si>
+    <t>Item Text (50)</t>
+  </si>
+  <si>
+    <t>BLART</t>
+  </si>
+  <si>
+    <t>Document Type (2)</t>
+  </si>
+  <si>
+    <t>XBLNR</t>
+  </si>
+  <si>
+    <t>Reference Document Number (16)</t>
+  </si>
+  <si>
+    <t>ZUONR</t>
+  </si>
+  <si>
+    <t>Assignment number (18)</t>
+  </si>
+  <si>
+    <t>PS_POSID</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Element (WBS Element) (24)</t>
+  </si>
+  <si>
+    <t>AUFNL</t>
+  </si>
+  <si>
+    <t>Proportional Revaluation of Annual Ordinary Depreciation (23)</t>
+  </si>
+  <si>
+    <t>AUFNV</t>
+  </si>
+  <si>
+    <t>Proportional Accumul. Revaluation of Ordinary Depreciation (23)</t>
+  </si>
+  <si>
+    <t>FIELD NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>IMPORTANCE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Mandatory for sheet</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Ledger</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Main Asset Number</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Asset Subnumber</t>
+  </si>
+  <si>
+    <t>Asset Transaction Type</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Posting Depreciation Area</t>
+  </si>
+  <si>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
+  </si>
+  <si>
     <t>Amount posted</t>
   </si>
   <si>
-    <t>SGTXT</t>
-  </si>
-  <si>
-    <t>Item Text (50)</t>
-  </si>
-  <si>
-    <t>BLART</t>
-  </si>
-  <si>
-    <t>Document Type (2)</t>
-  </si>
-  <si>
-    <t>XBLNR</t>
-  </si>
-  <si>
-    <t>Reference Document Number (16)</t>
-  </si>
-  <si>
-    <t>ZUONR</t>
-  </si>
-  <si>
-    <t>Assignment number (18)</t>
-  </si>
-  <si>
-    <t>PS_POSID</t>
-  </si>
-  <si>
-    <t>Work Breakdown Structure Element (WBS Element) (24)</t>
-  </si>
-  <si>
-    <t>AUFNL</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Item Text</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Reference Document Number</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Assignment number</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Element (WBS Element)</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>Proportional Revaluation of Annual Ordinary Depreciation</t>
   </si>
   <si>
-    <t>AUFNV</t>
-  </si>
-  <si>
     <t>Proportional Accumul. Revaluation of Ordinary Depreciation</t>
   </si>
   <si>
-    <t>FIELD NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>IMPORTANCE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>Row Number</t>
-  </si>
-  <si>
-    <t>Mandatory for sheet</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Ledger</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Main Asset Number</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Asset Subnumber</t>
-  </si>
-  <si>
-    <t>Asset Transaction Type</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Posting Depreciation Area</t>
-  </si>
-  <si>
-    <t>Document Date in Document</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document</t>
-  </si>
-  <si>
-    <t>Asset Value Date</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Item Text</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Reference Document Number</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Assignment number</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Work Breakdown Structure Element (WBS Element)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Overview</t>
   </si>
   <si>
@@ -435,197 +444,197 @@
     <t>1710</t>
   </si>
   <si>
+    <t>MPA_ADJUSTMENT_MAIN</t>
+  </si>
+  <si>
     <t>898</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_1</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_2</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_3</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_SUB_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_7</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_9</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_10</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>896</t>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_11</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_13</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>MPA_ADJUSTMENT_14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SENDER_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SENDER_SUB_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_SUB</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_SUB_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PART_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO1</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>3L</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>2022-01-03</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_1</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_2</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_3</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_4</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_5</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_6</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_7</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_8</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_9</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_10</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_11</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_12</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_13</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_14</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_SUB_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_SUB_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO1</t>
+    <t>MPA_ADJUSTMENT_RETIRE_PART_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RET_PART_SUB_SUB</t>
   </si>
   <si>
     <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO2</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_MAIN</t>
+  </si>
+  <si>
     <t>MPA_ADJUSTMENT_RETIRE_FULL_SCENARIO1</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULL_SUB_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RET_FULL_SUB_SUB</t>
+  </si>
+  <si>
     <t>MPA_ADJUSTMENT_RETIRE_FULLL_SCENARIO2</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SENDER_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SENDER_SUB_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_SUB_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RET_PART_SUB_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RET_FULL_SUB_SUB</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_FULL_SUB_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_PART_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_RETIRE_PART_SUB_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_SENDER_SUB_MAIN</t>
-  </si>
-  <si>
-    <t>MPA_ADJUSTMENT_TRANSF_INTRA_REC_SUB_MAIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -655,11 +664,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -699,13 +703,13 @@
   <cellXfs count="9">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1039,302 +1043,302 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,29 +1379,46 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -1406,15 +1427,15 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -1423,80 +1444,80 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1510,10 +1531,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -1527,131 +1548,114 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1664,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1673,21 +1677,21 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1696,12 +1700,12 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1819,37 +1823,37 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>47</v>
@@ -1860,34 +1864,34 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>47</v>
@@ -1898,34 +1902,34 @@
         <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>47</v>
@@ -1936,34 +1940,34 @@
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>47</v>
@@ -1971,37 +1975,37 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>47</v>
@@ -2009,40 +2013,40 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>47</v>
@@ -2050,37 +2054,37 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>160</v>
@@ -2094,34 +2098,34 @@
         <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>161</v>
@@ -2132,40 +2136,40 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>47</v>
@@ -2176,72 +2180,72 @@
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="D16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2249,406 +2253,405 @@
         <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
